--- a/report/Report-Summary.xlsx
+++ b/report/Report-Summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learning-area\uit-msc\mon-hoc\he-csdltt\he-csdltt-enc2db\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CFD44E-9BBB-407A-9B68-D6CCB7A1F62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EA7291-8D31-445C-ABC3-70781EE7557D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -347,6 +348,143 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175684</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCA90C9-6DD4-A8BB-5B27-8475D37B0AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6301740"/>
+          <a:ext cx="4892464" cy="922100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1714904</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCFFF31-84FC-5818-EB0D-41B3CD432A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="7444740"/>
+          <a:ext cx="4663844" cy="1432684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>598024</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A diagram of a software company&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788DD168-AE52-4021-97E8-FEF33994F324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="68580"/>
+          <a:ext cx="12028024" cy="5532120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -615,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -692,4 +830,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FA6B95-D0D8-493B-B326-61164487C6B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>